--- a/src/attributions/attributions_ig_traj_449.xlsx
+++ b/src/attributions/attributions_ig_traj_449.xlsx
@@ -1004,10 +1004,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
@@ -1517,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1573,76 +1573,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.114540994555552</v>
+        <v>-0.05093390072276603</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.475799005221293</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04793104781979805</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05180555888351637</v>
+        <v>-0.07858629896245023</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1166748488497332</v>
+        <v>-0.1007166870559984</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.456821138017877</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.07717974260677118</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003090040387018815</v>
+        <v>-0.1265729949260693</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.000163526181390674</v>
+        <v>0.04967646663717615</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.2901777066111002</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.09818312151686254</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.06605690310712221</v>
+        <v>0.3208066734843791</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03789157439499824</v>
+        <v>0.1543097335915174</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.1957105908339999</v>
       </c>
       <c r="AD3" t="n">
         <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1295117831637091</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09471387326701966</v>
+        <v>-0.2282067854058596</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -1681,130 +1681,130 @@
         <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1048721848888003</v>
+        <v>-0.1084674829811471</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.1705754645917417</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.04498030522192131</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.01791916972898953</v>
+        <v>0.1338057554457024</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1528311001006124</v>
+        <v>0.07040931267697702</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.7561953424520188</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.01214632130154418</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.03837138185132695</v>
+        <v>0.4684624642265953</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.04835228478788967</v>
+        <v>-0.01456457228416877</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.03170229028834366</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.02985609201365336</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.02879443587906968</v>
+        <v>-0.2119721528148338</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.03053646309601868</v>
+        <v>0.01904219168104138</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0.144595237645191</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.07772856858032109</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.006770927412447986</v>
+        <v>0.1715021136180842</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1492627370618075</v>
+        <v>0.06802805233351129</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.4037657231737623</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.01439823773459351</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.03437223752569167</v>
+        <v>0.2126677662863432</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
@@ -1813,52 +1813,52 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.05706608146290644</v>
+        <v>0.004302540559906926</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.2246324585098921</v>
       </c>
       <c r="CF3" t="n">
         <v>-0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.009412809232183956</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.04682143328882406</v>
+        <v>-0.01446525610453669</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.04435712260973531</v>
+        <v>-0.1264187734149223</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.02857780397752413</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.01128097113800189</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.03706335056716355</v>
+        <v>-0.1914748148426732</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
@@ -1870,46 +1870,46 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.05678003977110347</v>
+        <v>-0.005073114298277574</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.2318030031216413</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.006594819144448872</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.06662745419149049</v>
+        <v>-0.01505801704147681</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.00986624259531913</v>
+        <v>-0.02543379250642754</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.1707992186646124</v>
       </c>
       <c r="DG3" t="n">
         <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.01971777822689312</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.06196524631012322</v>
+        <v>0.03283925066654115</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,31 +1918,31 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0157123264896082</v>
+        <v>0.04808398920772963</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.1065879119745777</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.04802891260273442</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04554451830265338</v>
+        <v>-0.1605228938849021</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -1951,19 +1951,19 @@
         <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-9.112105382524569e-05</v>
+        <v>-0.01705351802338204</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.3072126945723512</v>
       </c>
       <c r="DY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.03870523240477484</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.02975184786735454</v>
+        <v>-0.03964421304942762</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
@@ -1975,103 +1975,103 @@
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.1181601873704218</v>
+        <v>-0.03124007554731149</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.08976672198031055</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.02525509138438347</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.01460866666845357</v>
+        <v>0.1275042230048829</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.02970452258209947</v>
+        <v>-0.006794714323435035</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.2474700857252338</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.05793307683992908</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.02361097927912752</v>
+        <v>-0.04988320517283035</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.06345120459609438</v>
+        <v>-0.04535436446639774</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.2489629393170266</v>
       </c>
       <c r="EZ3" t="n">
         <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.003719899402680845</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.05143975007823574</v>
+        <v>-0.0371456924907347</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.05014092641844075</v>
+        <v>0.03551315682009513</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0.07528825000802508</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.05645732038791407</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1054696403281028</v>
+        <v>-0.06844835795705002</v>
       </c>
       <c r="FL3" t="n">
         <v>0</v>
@@ -2086,66 +2086,66 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.05678963649244334</v>
+        <v>-0.07042825218692311</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.2064307159417071</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.04340351489664328</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.01962174305918747</v>
+        <v>-0.09894136974426099</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.06709701237313141</v>
+        <v>-0.1249119096118465</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>-0.1335267278520729</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.05916108872427023</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1618029370130781</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.4461025768775616</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.1083729166489292</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.06512804089050268</v>
+        <v>-0.01526540388580807</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04495380605985048</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2738,52 +2738,52 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1483200528787064</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.3471712523588874</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.1734754621345083</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1165127058878185</v>
+        <v>-0.06792462339708931</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0459279585777549</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.0304485070172528</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1865566861617528</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.002949501473248121</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.05768991523841688</v>
+        <v>0.05522171548875771</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.04885273766949048</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06139271863132793</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.145059086688476</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>-0.02394728536052072</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0730429839297162</v>
+        <v>-0.05530551376897785</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.06066386336558178</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -2819,25 +2819,25 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.05722734324599729</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.0241097536254115</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>-0.1004112692247009</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04712797845740782</v>
+        <v>-0.08949816320440851</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02404048124381069</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2846,52 +2846,52 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1784179502339913</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.5158931448493737</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.007546178419425936</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.009799162301805588</v>
+        <v>0.2410801838932891</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.07152594660804142</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04563882927412181</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.07279977000616558</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.09515203252986354</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02060089336086952</v>
+        <v>-0.1486815915853811</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.01308703914065229</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2900,79 +2900,79 @@
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.02682845466095745</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.04681204642612063</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>1.705973503843886e-10</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.09101540456395693</v>
+        <v>0.222061037808811</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-1.676998283275657e-12</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1177158028259442</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.2683692036402678</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>0.01778261594473974</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.003386278307883908</v>
+        <v>0.08096117524829691</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.03904807127609571</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.06683429197460261</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.1609851094912118</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0.01433514702262619</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01214811150050257</v>
+        <v>-0.02930853370862318</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.03407139473064751</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
@@ -2981,25 +2981,25 @@
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.01930332409507162</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.00498121264135085</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.08682986956711741</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.08691367525169746</v>
+        <v>-0.104215287766951</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.003914504221312677</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
@@ -3008,25 +3008,25 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.05645195447692757</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.1564317616100308</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.04772078569033593</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01517618852451125</v>
+        <v>-0.03381582168923555</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.03336659395476673</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
@@ -3035,25 +3035,25 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.007985352924493871</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.1142245871260718</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.01007932476176376</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.03901546602205486</v>
+        <v>-0.03811260047098777</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.02015722493111836</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>0</v>
@@ -3062,52 +3062,52 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0.008075648797235624</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.03917864747904748</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>-0.1451341584822357</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04098835289328392</v>
+        <v>-0.03554281187307803</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.006976519481771756</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.0030996145065984</v>
+        <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.1121119859220016</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.007627429971434789</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.04430293681707705</v>
+        <v>0.02345987241870664</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.005672008215294667</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
@@ -3116,52 +3116,52 @@
         <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.09525751950697851</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.1134454180061953</v>
       </c>
       <c r="EH5" t="n">
         <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.02156383731138341</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.03884101808942477</v>
+        <v>0.06781767150673111</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.0707135022311044</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.03725557699680582</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.1508341557490784</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.1135641325666964</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.07657880093088661</v>
+        <v>-0.09567384264494608</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.025237676450938</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
@@ -3170,25 +3170,25 @@
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.06125864272849316</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.163438702585384</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.01085974533617611</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002843035010560367</v>
+        <v>-0.03225190352710168</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.02937477115932809</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3197,189 +3197,189 @@
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.0323785311573336</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.0003476739888546743</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.07011973266989037</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.08440083577259133</v>
+        <v>0.002661562476595198</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.01885834711280125</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.0003049668201845356</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.0001459208311750294</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.05748009201967896</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.015907842771674</v>
+        <v>0.06159445688183588</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0009353187718638775</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0.001639844890073927</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.009620919826991264</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.08364623296503529</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02639760657696027</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1682179450266711</v>
+        <v>-0.144617707059109</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.3042053029400887</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.130328212859925</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09589346153568912</v>
+        <v>-0.08431730231640004</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1545536653195369</v>
+        <v>-0.1059829295022069</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.2874681480306256</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1575519313826955</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03522019426852702</v>
+        <v>-0.1596926369861656</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.03972984923123067</v>
+        <v>0.01670687852925237</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.2425312303584033</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1726168331889728</v>
+        <v>-0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.003516393085742432</v>
+        <v>0.14643584496817</v>
       </c>
       <c r="X6" t="n">
         <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06181902712451788</v>
+        <v>0.13474207947463</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0</v>
+        <v>0.3036688574518418</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.09246947897584644</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0972503267336749</v>
+        <v>0.01848709005060308</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>-0</v>
@@ -3388,19 +3388,19 @@
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1541810923780505</v>
+        <v>-0.002621871605536885</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1580104158255896</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.130973697622538</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.04666962297764253</v>
+        <v>0.08781186415590195</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -3415,100 +3415,100 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2175406792439771</v>
+        <v>0.05056865350351718</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.386830755054783</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.07379944136491083</v>
+        <v>-0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03156309454854454</v>
+        <v>0.2982198295723554</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.03776334177427957</v>
+        <v>-0.0741758441684881</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0.05336678116843247</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.08818832164240248</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.08475062735028553</v>
+        <v>-0.2494631019787794</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.05866592209784071</v>
+        <v>-0.07285536349701917</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0.1526724985321976</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.03764609528062898</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.03998403705171843</v>
+        <v>0.04668136733124158</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.2369873611897467</v>
+        <v>0.04917897564230676</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0</v>
+        <v>0.3193533495980883</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.09277000996047681</v>
+        <v>-0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.05178314188335575</v>
+        <v>0.08432089979291424</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -3517,31 +3517,31 @@
         <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.06522366004220265</v>
+        <v>0.04205585847499804</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.1157626120994994</v>
       </c>
       <c r="CF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.04250939287638107</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.0512282945390635</v>
+        <v>0.0109287611628473</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>-0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.06839380691417091</v>
+        <v>-0.06391396906845283</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.005105979958593941</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.01088298920151343</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.09143568519222066</v>
+        <v>-0.09400518772718272</v>
       </c>
       <c r="CR6" t="n">
         <v>-0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
@@ -3577,79 +3577,79 @@
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.06198260841336313</v>
+        <v>0.02564948640172982</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.1298235554065021</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.03884694731729939</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.09953664049758471</v>
+        <v>-0.001692438394052241</v>
       </c>
       <c r="DA6" t="n">
         <v>-0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.07004903310827006</v>
+        <v>0.04702922460499681</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.1553822932237132</v>
       </c>
       <c r="DG6" t="n">
         <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.09785139420323041</v>
+        <v>0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02204884774780667</v>
+        <v>0.05212611830189312</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
         <v>-0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.06302868232553353</v>
+        <v>0.02168845502443478</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.04105362614806844</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0.0243190888514217</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.1467004550348214</v>
+        <v>0.06141383808416896</v>
       </c>
       <c r="DS6" t="n">
         <v>-0</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>-0</v>
@@ -3658,127 +3658,127 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.02902793919668126</v>
+        <v>0.007175038842473454</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>0.1059788661015325</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.05536310567202571</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1325393366316565</v>
+        <v>0.00409533620788957</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
         <v>-0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.1406224219135662</v>
+        <v>-0.08733345989379473</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.008101806116608318</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.06436264882184607</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.09383844476519235</v>
+        <v>0.01449782560123855</v>
       </c>
       <c r="EK6" t="n">
         <v>0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.01794871035230304</v>
+        <v>-0.05112267127667793</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0</v>
+        <v>-0.1430421951598392</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.05986008475795849</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>-0.1232411998055399</v>
+        <v>-0.008881314172604522</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
         <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.08626029284616195</v>
+        <v>0.02531777779234149</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.1358639342966988</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.03290986564615982</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.06302844584754488</v>
+        <v>-0.05072732527754874</v>
       </c>
       <c r="FC6" t="n">
         <v>0</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1027797720677928</v>
+        <v>0.05077363708931815</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0.05952363317205129</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.08009819960312356</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.01475862459389955</v>
+        <v>-0.08322575456290615</v>
       </c>
       <c r="FL6" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.06706007128896117</v>
+        <v>-0.03517861370778907</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.2278223760770041</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.02223803407077657</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.1359372536625004</v>
+        <v>-0.1386650757347677</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
@@ -3814,25 +3814,25 @@
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>-0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.1024214800943741</v>
+        <v>-0.09262923117954405</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.01069600864067825</v>
       </c>
       <c r="GA6" t="n">
         <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.01877466182481715</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD6" t="n">
         <v>-0</v>
@@ -3844,30 +3844,30 @@
         <v>0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3221325240738474</v>
+        <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.4270753249631639</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1960931237924586</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.07394954571962896</v>
+        <v>-0.0771616866793</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02419929342055211</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,25 +3876,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2983252346935476</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.3363957818941062</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.2348528728529808</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1397288452247817</v>
+        <v>-0.104396038570113</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.004299894900089019</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,106 +3903,106 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.03125981073780973</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1446935178741774</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.004742099518890276</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.112320617501796</v>
+        <v>0.1141965487985816</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.08415352800753463</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07325834437745699</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>0.1448897834155375</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.009202354170350526</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05529933348708784</v>
+        <v>-0.06688332678711209</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.05294246592629531</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1021591825062441</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.06247382333808175</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.07485594790955916</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.05420030917819824</v>
+        <v>-0.0416297262119171</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.037300365145715</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2843466442247027</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.5960330250386856</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>-0.02530861934199411</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.003994234379644201</v>
+        <v>0.1413444318850269</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07821701631062489</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,106 +4011,106 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.08271160846545095</v>
+        <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.0150736661268544</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.1207116079820369</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.0199094270063967</v>
+        <v>-0.1646581374031354</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001621766467363325</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.06427522003919714</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.02505844970128879</v>
       </c>
       <c r="BN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.06041767441340998</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1297735984449307</v>
+        <v>0.1387916858850762</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.007092559560686857</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1934618312050477</v>
+        <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.3206112096901577</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.02048998199641618</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.06043388818842223</v>
+        <v>0.1021425784936853</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.02705203702226682</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.1260047126288684</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1284401003112307</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.05025560469902627</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01376926307978791</v>
+        <v>-0.03097483435299095</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.02122071788742401</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -4119,52 +4119,52 @@
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.02702680892628248</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.02102969667176206</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.0651183625688065</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0648327959928649</v>
+        <v>-0.1392244560661554</v>
       </c>
       <c r="CR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.02015114152828937</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.1099201519120634</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.1152670482514614</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.07275611263430364</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.002474554001255569</v>
+        <v>-0.0251315938255113</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.01727433631821588</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
         <v>-0</v>
@@ -4173,52 +4173,52 @@
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0007728763503429922</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.1155516713978643</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.06227850095790969</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.03335175823794843</v>
+        <v>-0.0353095207690951</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.03144851318231471</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0.01346906428545985</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.07950320439014877</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.04186717131372986</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.04044495796070131</v>
+        <v>-0.06624154548672159</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0.057594658770029</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
@@ -4227,25 +4227,25 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.006635524902091788</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.04895921925588016</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0.02108656799314412</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01563524716598601</v>
+        <v>-0.03230507657070937</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.003960058983126339</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
@@ -4254,52 +4254,52 @@
         <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.1829868750690556</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.09971976312390379</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0608750527775274</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0281425145992046</v>
+        <v>0.1249348268990969</v>
       </c>
       <c r="EK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.04383508908270846</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.04068918832382281</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.08636700721743262</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>0.09419431536303698</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.09929747532974442</v>
+        <v>-0.08536859812108619</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.03104629138623486</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,79 +4308,79 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.1156868387914075</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1266260245810478</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>0.06676486374684745</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.003219790936659264</v>
+        <v>-0.03428298654327701</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.01204611681567305</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.09163976100606219</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.01329534274654105</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>-0.02550261952532894</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.03667407439997248</v>
+        <v>-0.01585341661976099</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.01188381249637956</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.02489026215548518</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.005880072685734675</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.1006695225847066</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01557474750375295</v>
+        <v>-0.1442931469397952</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.02207275431312513</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
@@ -4389,54 +4389,54 @@
         <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.03767583124183607</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.04885786719379055</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.04284880198243489</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03971240472341076</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.404920830170534</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1678359723708908</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2301242177497509</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1553295568171263</v>
+        <v>-0.03033777101907763</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.1040325801905506</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3935847383943464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1310649498054584</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.3071496198365843</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02939567772585787</v>
+        <v>-0.02104772910727366</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.1182398148752345</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,49 +4472,49 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00638283168980844</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.02956148166151028</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.1269563782137221</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.2095246243691361</v>
+        <v>-0.01334726600424503</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0.008876243850304789</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>-0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0529526357048853</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.02882597202595967</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.08942757214450917</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1988674693020883</v>
+        <v>0.01338990027246036</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>0.02344038902738942</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -4523,55 +4523,55 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1375501353999368</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01637069526011906</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.048749910091305</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.02235937237371063</v>
+        <v>0.006840173974603005</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.05586838190952034</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.2725374972689271</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1464897523091824</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.271985929594702</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01871752253900514</v>
+        <v>-0.01598552056760086</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1306808005670502</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1256070680826095</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0673261848231566</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.0787390495087895</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.1933063690607676</v>
+        <v>-0.02896992842094685</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.0358211680048967</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,106 +4607,106 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.04992885971452143</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.0394847443525744</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.09677547233403153</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.188252215280168</v>
+        <v>0.01999238570669076</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.005437126003285028</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2429412682447752</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.07775430141673513</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.1325546389002994</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0179976694205641</v>
+        <v>-0.01328005399864363</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.05656129298303352</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1373226621257611</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.04269844331977474</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.07260287747061989</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
         <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>-0.03157010931270279</v>
+        <v>-0.001129584504083976</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.03342316812401144</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.02279957455266457</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.009076260677597443</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.003729570370456885</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.08952179246328755</v>
+        <v>-0.004409190026352442</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008494679147056211</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,76 +4715,76 @@
         <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1195506522886814</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.03540505602767957</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.07565246860977787</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.08013372094420916</v>
+        <v>-0.00193201638450198</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.03815295937088038</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.03884188986840852</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.03468579059073126</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.04888186730432641</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.007799778504544255</v>
+        <v>0.03749238765348856</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0</v>
+        <v>0.03278153150182752</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.02528461688126247</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.01132113686770578</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.06169047122517572</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>-0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.0007894591505595481</v>
+        <v>0.01276490246213354</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.00179942779728434</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
@@ -4793,82 +4793,82 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01177624871882538</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.04213931683213012</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.03454474623463204</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
         <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0385575236693644</v>
+        <v>-0.01051588979404559</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.01260437734599104</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2119951027988886</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.02803988176765475</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.101709514197266</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
         <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.04056007503155545</v>
+        <v>0.0127694229464104</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.01949256791267902</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.03909909554970335</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.01206297250833705</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.08805856087645826</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.02339206168729207</v>
+        <v>0.0008251581147397228</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.01188845542362808</v>
       </c>
       <c r="EU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
@@ -4877,25 +4877,25 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1303489768698936</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.03696095518477188</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.07160229970268991</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.04975643320806883</v>
+        <v>0.005047873037353013</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.0376297456756482</v>
       </c>
       <c r="FD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
@@ -4904,76 +4904,76 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.08819088402071429</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.008347755896053527</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.08560744044300481</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.09650449621135757</v>
+        <v>-0.0257392736257557</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.05206297992885468</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.01647819956803536</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.0223412609147632</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01233783640391044</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.03707637989975698</v>
+        <v>0.01571667868067597</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.004039893745518369</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.04348297332335334</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.01934436599291003</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.07120926703694494</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.04783219380806054</v>
       </c>
       <c r="GE8" t="n">
         <v>-0</v>
@@ -4982,57 +4982,57 @@
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2012763093082164</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.2829030822561816</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-0.106882356227446</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03616518349524001</v>
+        <v>-0.05920424330648071</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02293260625366688</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1783060730402574</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1985561162599711</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.1244889898673389</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.08511466615330132</v>
+        <v>-0.1015229855089371</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0004739291721254695</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -5041,79 +5041,79 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01041863019732598</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.08902387069141132</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.008345487945828048</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.07113588043561467</v>
+        <v>0.02709405342550296</v>
       </c>
       <c r="X9" t="n">
         <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.06395433614019123</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02880820096425535</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.09290962283167808</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>-0.02093973728870638</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.008451471605865537</v>
+        <v>-0.03221064699103029</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03581298917780756</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.05755969581956071</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01036502800341894</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0.03202702756739855</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.02019916034396743</v>
+        <v>-0.0783824407729487</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01621433867065641</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -5122,133 +5122,133 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1557419972251446</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.3986924455510888</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>-0.04397610491404055</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02651402014990867</v>
+        <v>0.09853368166183137</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.05358307694432038</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.05020222746459123</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.01169047931203164</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-0.04783534075302497</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.03485351051771991</v>
+        <v>-0.1178161943541349</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.01824550120479996</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.03439557254670389</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.09538996151015593</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.03073134803017336</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.06326715879001474</v>
+        <v>0.1410039632409338</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.02236790854183313</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1167026103647791</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.2102487036040516</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.008273904244236501</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.01426340234159555</v>
+        <v>0.04537253750179957</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.02537408463016116</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.06124211340521095</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.07210606418175672</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0</v>
+        <v>0.02047882047581454</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.009011707381071947</v>
+        <v>-0.001181260680015966</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.01492534970816713</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -5257,25 +5257,25 @@
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.004152053591110015</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.03819016241797305</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0</v>
+        <v>-0.03362698419554005</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.0237255154330366</v>
+        <v>-0.05681766082921248</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01049443310040788</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
@@ -5284,160 +5284,160 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.05494821674389324</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.05868451119666628</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.0402487234414329</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.003557284805053483</v>
+        <v>-0.005457970064337354</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.008299186582023168</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.003592985176326877</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.03424240402188736</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.1047549109687223</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.00971861178548571</v>
+        <v>-0.009276711543831102</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.003850025313102344</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.01753944376269821</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.04391554057209627</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>-0</v>
+        <v>-0.07208994428797939</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.05222414915597303</v>
+        <v>0.0085384961174251</v>
       </c>
       <c r="DS9" t="n">
         <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.03465839605702127</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.01361295390155751</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.04589782134249063</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>-0</v>
+        <v>0.01051769513848558</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.005037640090000189</v>
+        <v>-0.0179114608825316</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.00895936994312713</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.09488700121564386</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.06366287972859422</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>-0.0888163662525399</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02051194018170309</v>
+        <v>0.07975363993594663</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.03614591609471408</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.02411240463273324</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.06334898216225113</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.07284506306008492</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.07442093117755989</v>
+        <v>-0.02143337066612031</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.004555153903058153</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
@@ -5446,79 +5446,79 @@
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05304708640125137</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05955299015010749</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0</v>
+        <v>0.03590625059803997</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.009307381638748101</v>
+        <v>0.006891075062242417</v>
       </c>
       <c r="FC9" t="n">
         <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.002807431447770688</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0.05045116113023828</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.05071590473610993</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0.01509688872184695</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.05551848653623014</v>
+        <v>-0.03171114409774673</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.02411337075394406</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
         <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0.009275874797497582</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.03808684757421084</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0</v>
+        <v>-0.01025282672421068</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.03625095522598417</v>
+        <v>-0.06121400548820744</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.00451933125698094</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
@@ -5527,728 +5527,728 @@
         <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.01889866609057849</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.01502366942579967</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.007216104718020705</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.01966061570741274</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>-0.06350635857820673</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1881897161719028</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0.1813794252132459</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01840798448558576</v>
+        <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.06576250084196911</v>
+        <v>0.1020727415252537</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.08740937797464801</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02661781063531841</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>-0.01461278306059381</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1403260546388624</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.1125921596923515</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01135215741922334</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05949254777617095</v>
+        <v>0.03301898456953582</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0.0875999402090938</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.04604946665442571</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>-0.02590053984796397</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.03015323941081681</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.08484073442047946</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01627233378180004</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01066704681426532</v>
+        <v>0.06914635647235486</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0.04939158663306453</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.03032776346299527</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0.02502762096434809</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.09465284762552836</v>
+        <v>-0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>0.06951484382384486</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.01645133643127968</v>
+        <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.000636365647286316</v>
+        <v>0.04693452167304587</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0.0114151315738517</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01271053199290045</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>-0.01595745576516778</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.09398785533297381</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>-0.05014287743000098</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01548463868156361</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.003873203795572487</v>
+        <v>-0.02585489661122989</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0</v>
+        <v>-0.01653078852647225</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002819480233353686</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0</v>
+        <v>-0.02406957636401721</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1726290820298123</v>
+        <v>-0</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>0.2347791196817446</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.01279450450634016</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0175091952367474</v>
+        <v>0.3060440966937655</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>-0.07292669263095368</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.04986148527964477</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>-0.07108207177284283</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.05905524957255173</v>
+        <v>0</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>-0.03512984166080022</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.008025056088947916</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.001740839636843343</v>
+        <v>-0.01071706157227223</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0.04818194173051956</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.04238458059239343</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>0.01719831437864698</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01011775290981714</v>
+        <v>-0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>0.1336029322509633</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.03206425116693184</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0551361519032422</v>
+        <v>0.0981748711542383</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0.01364003803241982</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0267032804335171</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>-0.02012143978203868</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.06880150608966454</v>
+        <v>-0</v>
       </c>
       <c r="BW10" t="n">
-        <v>0</v>
+        <v>0.06678986653684563</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.01990067167197489</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.01513043722215529</v>
+        <v>0.2008628488143372</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>-0.04333300002764762</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.03035922914154396</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>0.02524917374634923</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0.05498202232784841</v>
+        <v>-0</v>
       </c>
       <c r="CF10" t="n">
-        <v>0</v>
+        <v>-0.04674428215802596</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.007335728231186121</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02459041534073186</v>
+        <v>-0.01692705989859599</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0.04337111267044955</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01462426535372208</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0.006535169618902433</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0.02149060500042135</v>
+        <v>0</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>0.00589203170841813</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.001627566851102348</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.05425000386069783</v>
+        <v>-0.08835472818817468</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>-0.007080762922470431</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.00675846356011856</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0.01300964418173035</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0.05535242680063941</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0</v>
+        <v>-0.04699960513590468</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.00339431116782111</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0274860224401556</v>
+        <v>0.01273617511166886</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>0.04768542946037004</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01131050113738039</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>0.0320910653177682</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0.02742072194882114</v>
+        <v>-0</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>-0.05608590079945903</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01779966980339841</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.03492268861445146</v>
+        <v>-0.02500922542959883</v>
       </c>
       <c r="DJ10" t="n">
         <v>-0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0</v>
+        <v>0.03172187400351886</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03146008587474274</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>-0</v>
+        <v>0.0496330581862546</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0.01620165595155275</v>
+        <v>-0</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>0.01999792341894996</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.01440213667925437</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.007325058759663525</v>
+        <v>-0.04741995760308487</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>0.02630381162227558</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.01365468554567765</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0.01665679452542779</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.01333048012721638</v>
+        <v>0</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0.04771658186455094</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.02857706948990723</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01349232175097966</v>
+        <v>-0.06526674495081949</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0.01701490196608371</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.01677923363319146</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0</v>
+        <v>-0.0126106566407458</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0.05606551937087922</v>
+        <v>0</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0.1201626040448968</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.01512034819908311</v>
+        <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.04535895591171547</v>
+        <v>0.07383189437231714</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0.02320292370688414</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.01277821412788787</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0</v>
+        <v>0.004752949773551092</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0.02084547715499479</v>
+        <v>0</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>-0.01318201253482148</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.04874409413427252</v>
+        <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.00741704971566647</v>
+        <v>-0.05273946409043685</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>-0.006711892380569073</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.03562121555999316</v>
+        <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>0.01422983717784029</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0.04709633549646252</v>
+        <v>-0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0.04901968625297676</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.0009814001679197496</v>
+        <v>-0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01959635461760146</v>
+        <v>-0.01406108284163863</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0.04383227311149483</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0198815041344861</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0</v>
+        <v>0.021745802802035</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0.03468917677995276</v>
+        <v>-0</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0.007282881318701071</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.02595080889818443</v>
+        <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01155476408258633</v>
+        <v>-0.02309036521342837</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>-0.0450218656514559</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.03142525879892948</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>-0</v>
+        <v>0.04124039767393507</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0.01328526877551821</v>
+        <v>0</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>0.05486705948533237</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.06476546476166989</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0005311981643045463</v>
+        <v>-0.07331035396198546</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0.03271565205171051</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0.0123694569187699</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
         <v>-0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0</v>
+        <v>-0.02375130699669149</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0.009377610574694781</v>
+        <v>-0</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>0.009151393063624155</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.06225272670543969</v>
+        <v>-0</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0.01656186971047223</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.01122311934370591</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5520786384938141</v>
+        <v>0.1546675942510913</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1602297905773543</v>
+        <v>-0.02126210846745611</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3117077933451602</v>
+        <v>-0.1047622737620331</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
         <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4860285847934345</v>
+        <v>0.1265215434152772</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.07003413403771971</v>
+        <v>-0.01712544500777572</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.3470417691158436</v>
+        <v>-0.09864099295708659</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1062532172872833</v>
+        <v>0.02345362202690218</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02914051498440231</v>
+        <v>-0.006258510307952764</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.07990181651880628</v>
+        <v>-0.01389937401049191</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1373341689247347</v>
+        <v>0.02056794320201032</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.01783466369823099</v>
+        <v>0.01555166770452008</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.1268555426818141</v>
+        <v>0.01303781699059549</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1168080054890217</v>
+        <v>0.01487888100284751</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.0148694769970664</v>
+        <v>0.01017251683732783</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.13037015179772</v>
+        <v>-0.04644761929481579</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3046937920564733</v>
+        <v>0.1126933372418174</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
@@ -6272,10 +6272,10 @@
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.03537194458472954</v>
+        <v>0.003752778571858046</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.1430298573510353</v>
+        <v>-0.08230696724791635</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6284,25 +6284,25 @@
         <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2104086509378196</v>
+        <v>0.06352977850688123</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.06185552630273176</v>
+        <v>-0.03972620747672272</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.05873713718543509</v>
+        <v>-0.04567350721875114</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,25 +6311,25 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.04967593733946845</v>
+        <v>0.03582709617155534</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1549199020033081</v>
+        <v>0.01417796695441196</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.2146901970049853</v>
+        <v>0.01198504704888023</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6344,34 +6344,34 @@
         <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1571944396675773</v>
+        <v>0.0603029840838959</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.1672331236962786</v>
+        <v>-0.00802793256270347</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.2845974474136996</v>
+        <v>-0.04345017763583505</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0.1415784469060952</v>
+        <v>-0.03304300130647717</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6380,70 +6380,70 @@
         <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02676255900194004</v>
+        <v>-0.001524832659539685</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.08352072244791794</v>
+        <v>0.02524023563022688</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.04124532660848812</v>
+        <v>-0.008416190439958223</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.05871997453004552</v>
+        <v>0.005574811972402139</v>
       </c>
       <c r="CR11" t="n">
-        <v>-0.1011909289211132</v>
+        <v>-0.006645197955629764</v>
       </c>
       <c r="CS11" t="n">
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0.1312667478055846</v>
+        <v>-0.02635472591253795</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01334175937120074</v>
+        <v>-0.004088492861241183</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.06785912891645897</v>
+        <v>0.02935038719618139</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
@@ -6452,25 +6452,25 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.006848006155453047</v>
+        <v>-0.01256766180118058</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.03574968284464999</v>
+        <v>0.009901627581655317</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.03806306256353407</v>
+        <v>0.02584465314260906</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.004135137374464579</v>
+        <v>-0.0162633802191667</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6488,37 +6488,37 @@
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.01098666932973729</v>
+        <v>0.03311697523665037</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0.1014838099513766</v>
+        <v>0.00106876921918344</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.07222044051185691</v>
+        <v>0.02511534422565461</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.06031127062546985</v>
+        <v>-0.01068440924701882</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0.04274716467264253</v>
+        <v>-0.01068655702844498</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,25 +6527,25 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0.2269140128915801</v>
+        <v>-0.02051472817755767</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.1137851176248187</v>
+        <v>0.004333907983289259</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.09030199331365829</v>
+        <v>0.008108703407187499</v>
       </c>
       <c r="EL11" t="n">
         <v>-0</v>
@@ -6554,31 +6554,31 @@
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0.02089241137995142</v>
+        <v>-0.01023310577104657</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.005824979389374217</v>
+        <v>-0.01111848826806716</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.1432229754218694</v>
+        <v>0.01848929640172172</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
@@ -6587,34 +6587,34 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0.1337536542324093</v>
+        <v>-0.02756316614123657</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0275872047005518</v>
+        <v>0.003879311716973218</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.09722135228223609</v>
+        <v>0.03054540424502026</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0.07263235920558873</v>
+        <v>-0.004945422237985278</v>
       </c>
       <c r="FI11" t="n">
         <v>-0</v>
@@ -6623,10 +6623,10 @@
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.00245925728199787</v>
+        <v>-0.02593690267025362</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.09318140030418527</v>
+        <v>0.03543062432088345</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
@@ -6635,31 +6635,31 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0.04757077957799553</v>
+        <v>-0.01005088730495977</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01150222270199073</v>
+        <v>0.008729895723456926</v>
       </c>
       <c r="FU11" t="n">
-        <v>-0.007846361932441436</v>
+        <v>-0.001478909823683073</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
         <v>-0</v>
@@ -6668,25 +6668,25 @@
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0.006430567706701707</v>
+        <v>-0.009243146605927182</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0.01780372904722165</v>
+        <v>-0.04094291583436825</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
         <v>-0</v>
@@ -6697,103 +6697,103 @@
         <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3412943522842949</v>
+        <v>0.5324287735203928</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1381417877139031</v>
+        <v>-0.2301156821186168</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04310810804105891</v>
+        <v>-0.1706958180602797</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3293610221932773</v>
+        <v>0.4522695295865467</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1099038714798621</v>
+        <v>-0.2286709864705714</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005679274506195752</v>
+        <v>-0.2092872253278444</v>
       </c>
       <c r="O12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01609873993929127</v>
+        <v>0.1080800432186498</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03543847584852322</v>
+        <v>-0.03354693927289628</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1626618523929715</v>
+        <v>0.05044263195193048</v>
       </c>
       <c r="X12" t="n">
         <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
         <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1066221022402825</v>
+        <v>0.1831444116350047</v>
       </c>
       <c r="AD12" t="n">
         <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.05915493289926245</v>
+        <v>-9.293314389110008e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.007402189831432371</v>
+        <v>-0.01210667558735372</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>-0</v>
@@ -6802,79 +6802,79 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0712962121203197</v>
+        <v>0.03232926567739231</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.03632218050318011</v>
+        <v>-0.04133543828274481</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.001526681702945496</v>
+        <v>-0.1069816096953557</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2941377838857143</v>
+        <v>0.5653258575003406</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.001981890935897138</v>
+        <v>-0.07642357896667763</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01814023034351186</v>
+        <v>0.006464714224062563</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0580957563058408</v>
+        <v>0.08747890055624111</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.0835470982777485</v>
+        <v>-0.09553695107257888</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.0055173391245872</v>
+        <v>-0.1321489700845621</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
         <v>-0</v>
@@ -6883,25 +6883,25 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.05153667263518285</v>
+        <v>0.1418937170984399</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.0565720688429867</v>
+        <v>0.06131401433052292</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02111319972999023</v>
+        <v>0.1832555583886083</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>-0</v>
@@ -6913,16 +6913,16 @@
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.1009898333181813</v>
+        <v>0.3255957904432141</v>
       </c>
       <c r="BW12" t="n">
         <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.05775778077531261</v>
+        <v>-0.08032155731969486</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.08631423816144818</v>
+        <v>0.06111838955704734</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6931,52 +6931,52 @@
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0.103982692318507</v>
+        <v>-0.1134501497944423</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.03191898644720509</v>
+        <v>0.03357809172072082</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.01472066292697875</v>
+        <v>0.01542893489259772</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
         <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0.02977110868313206</v>
+        <v>-0.09852072739853251</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.006087018669570577</v>
+        <v>-0.04268681357114639</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.1091658813261654</v>
+        <v>-0.1159798627049141</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,28 +6985,28 @@
         <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0.09965271142891614</v>
+        <v>-0.09646970842807608</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.03708070385553883</v>
+        <v>0.05619163084288868</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02552065373220844</v>
+        <v>0.008317902736457701</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
         <v>0</v>
@@ -7018,28 +7018,28 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>-0.09845403503293421</v>
+        <v>-0.005948743460585817</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.01863254672680592</v>
+        <v>0.139413742757327</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.009852934738826896</v>
+        <v>0.01626535401681958</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
@@ -7048,16 +7048,16 @@
         <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>-0.05254945248083307</v>
+        <v>-0.06280835414005739</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01641047152959447</v>
+        <v>-0.06476042379558489</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.07766776724108171</v>
+        <v>-0.1169666142550416</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7075,25 +7075,25 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0.06600336664398623</v>
+        <v>-0.1274503772465284</v>
       </c>
       <c r="DY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0.01336310580365608</v>
+        <v>-0.04060955401936148</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.05321106927572737</v>
+        <v>-0.06095033722699003</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,19 +7102,19 @@
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0.08843635000967509</v>
+        <v>-0.09298977397537421</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.05488647372013059</v>
+        <v>0.08819596092463394</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.06106643332174728</v>
+        <v>0.1362992789939556</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
@@ -7123,136 +7123,136 @@
         <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0.01610596465008907</v>
+        <v>-0.08635255554498034</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04779547547740191</v>
+        <v>0.03785375153928936</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01920520601516289</v>
+        <v>0.08483207054247945</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
         <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0.09517192696297623</v>
+        <v>-0.09437893878975721</v>
       </c>
       <c r="EZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.02921415859159823</v>
+        <v>0.05859372354951367</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.0263336491812605</v>
+        <v>0.03146425714936582</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.05772541339240288</v>
+        <v>-0.09828374329377089</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.08052757649692631</v>
+        <v>0.05960619601966445</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.01612175694007999</v>
+        <v>-0.05418686724821322</v>
       </c>
       <c r="FL12" t="n">
         <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0.005326613307194954</v>
+        <v>0.01951715581233665</v>
       </c>
       <c r="FR12" t="n">
         <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.02218518159269729</v>
+        <v>-0.02750768459415517</v>
       </c>
       <c r="FT12" t="n">
-        <v>-0.008717439225821093</v>
+        <v>-0.05041397224363675</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0.1065888980170522</v>
+        <v>-0.03614722322166748</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0.01626432611259985</v>
+        <v>-0.03399158875785377</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF12" t="n">
         <v>0</v>
@@ -7263,19 +7263,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5069746522958086</v>
+        <v>0.2127481818162456</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4686682290419391</v>
+        <v>-0.1213452895671792</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1162428803567459</v>
+        <v>0.1442763001557124</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -7287,49 +7287,49 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4262938276570838</v>
+        <v>0.2153879649628282</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3983612670300281</v>
+        <v>-0.04883055807025742</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06989175321442206</v>
+        <v>0.08139647994910056</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.007307932899650368</v>
+        <v>0.02999942266900436</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.09293457321388617</v>
+        <v>0.06181685061295922</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04955130132964474</v>
+        <v>0.04740348320885432</v>
       </c>
       <c r="X13" t="n">
         <v>-0</v>
@@ -7341,22 +7341,22 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.04628359925408473</v>
+        <v>-0.02435029733487662</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.1015070928945734</v>
+        <v>-0.0128775452128222</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.05858406304856186</v>
+        <v>0.007291442668956003</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -7368,22 +7368,22 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.1640097873312141</v>
+        <v>0.0009876712400837115</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.1552576832823271</v>
+        <v>-0.0151127693234958</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.03477502045881673</v>
+        <v>-0.06589065669835305</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
@@ -7395,49 +7395,49 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.2757914098166704</v>
+        <v>0.1143883016956932</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.2004336535341116</v>
+        <v>-0.05106196232588504</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.04631244989645644</v>
+        <v>0.1637094856704814</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.1757538798125016</v>
+        <v>0.1184517735411994</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.1835208299200402</v>
+        <v>-0.01703979127276205</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.08003723282909959</v>
+        <v>0.08761464013488872</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
@@ -7449,82 +7449,82 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.02745465252073774</v>
+        <v>0.02245733433503399</v>
       </c>
       <c r="BM13" t="n">
         <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.003010889654269237</v>
+        <v>0.01721859463317704</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.02128662737369696</v>
+        <v>0.0858856748505327</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR13" t="n">
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.2849622758392913</v>
+        <v>0.05186853012291872</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW13" t="n">
         <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.1364109315581469</v>
+        <v>-0.002413317766101937</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.07022658834018644</v>
+        <v>0.08014564655202941</v>
       </c>
       <c r="BZ13" t="n">
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.1304344718602624</v>
+        <v>-0.04171991599811762</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.08481188141106934</v>
+        <v>-0.01664242001583374</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.03328905995673753</v>
+        <v>-0.03108536949131906</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,52 +7533,52 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.09011511651511502</v>
+        <v>-0.02003297917815343</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
         <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.1241923883292088</v>
+        <v>-0.08086158364985026</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1097457097491415</v>
+        <v>-0.09596145660160081</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.1215773934018692</v>
+        <v>-0.03252811021633836</v>
       </c>
       <c r="CW13" t="n">
         <v>-0</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.04759501170741362</v>
+        <v>0.001530118247315277</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.05499756166462598</v>
+        <v>-0.02307518383511102</v>
       </c>
       <c r="DA13" t="n">
         <v>-0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>-0</v>
@@ -7587,19 +7587,19 @@
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.01657811123727132</v>
+        <v>-0.01613871915039517</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.05668175991049217</v>
+        <v>0.05611999808322592</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.1655155070114445</v>
+        <v>-0.02227689626098308</v>
       </c>
       <c r="DJ13" t="n">
         <v>0</v>
@@ -7608,40 +7608,40 @@
         <v>-0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.02217778818038642</v>
+        <v>-0.02553801593473321</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.003860792653470681</v>
+        <v>0.03865860001297722</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03337776085632561</v>
+        <v>-0.08059878124067203</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.01734796549489864</v>
+        <v>-0.03057830847219872</v>
       </c>
       <c r="DX13" t="n">
         <v>-0</v>
@@ -7650,16 +7650,16 @@
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.009889993560744673</v>
+        <v>-0.02619243729951997</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.05882793006369182</v>
+        <v>-0.02979632934395841</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.2199845960507733</v>
+        <v>-0.03790396196512209</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.1041871962342946</v>
+        <v>0.00812169903954393</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.03027421029329718</v>
+        <v>-0.002595699955930855</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -7695,25 +7695,25 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.02198539494654174</v>
+        <v>-0.01529973682800669</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.001252458444996419</v>
+        <v>0.03378678259352468</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.06216162338025336</v>
+        <v>-0.003746849102695152</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,76 +7722,76 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.1243516125080226</v>
+        <v>-0.03421373231961227</v>
       </c>
       <c r="EY13" t="n">
         <v>0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0603573106050946</v>
+        <v>-0.008992436127871475</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.05468076151860975</v>
+        <v>-0.03612083700315429</v>
       </c>
       <c r="FC13" t="n">
         <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.1272571990628478</v>
+        <v>0.002836140414838229</v>
       </c>
       <c r="FH13" t="n">
         <v>0</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.1337553538988227</v>
+        <v>0.01319877608197048</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02492564548684572</v>
+        <v>-0.1215513789028884</v>
       </c>
       <c r="FL13" t="n">
         <v>0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.03333758936661818</v>
+        <v>0.01261423274869531</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.1334739701160138</v>
+        <v>-0.001491104576589455</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.02905481874728573</v>
+        <v>0.04911029474173853</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV13" t="n">
         <v>0</v>
@@ -7800,42 +7800,42 @@
         <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.08431660151189532</v>
+        <v>0.02150251150644242</v>
       </c>
       <c r="FZ13" t="n">
         <v>0</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.01595508800985403</v>
+        <v>-0.02436690417023375</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,52 +8970,52 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1818773308777194</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.4798839090221421</v>
       </c>
       <c r="C16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.08739983253848428</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.05417069087557912</v>
+        <v>-0.09708317245157393</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02343311161188364</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1615781980144234</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0.3060445113342578</v>
       </c>
       <c r="L16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.1350739504912112</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.08358338306433553</v>
+        <v>-0.1071874458000956</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005148583333737983</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9024,52 +9024,52 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001194535633758834</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.08637900757558158</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.03067475875928937</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.04023364542964944</v>
+        <v>0.1364408273779457</v>
       </c>
       <c r="X16" t="n">
         <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.05061223287050286</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01939872043124821</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0</v>
+        <v>0.08478549621922067</v>
       </c>
       <c r="AD16" t="n">
         <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0</v>
+        <v>0.03401267868909055</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.01625739631598946</v>
+        <v>-0.04946780163147248</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.03589523078062046</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -9078,25 +9078,25 @@
         <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03348569979625605</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0.02788074677289032</v>
       </c>
       <c r="AM16" t="n">
         <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0.03198605229156495</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.01179947940996333</v>
+        <v>-0.007508879044618359</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.007426176486505228</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -9105,133 +9105,133 @@
         <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.09409782569797484</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.347499857733591</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>1.258758525554364e-10</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.008911321935998097</v>
+        <v>0.1068424098300194</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.040042106658052e-11</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03344692387447909</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.04515492095906791</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.1920996426943725</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.01607014558221374</v>
+        <v>-0.1484162654406598</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.02156181121445065</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.02473890164095757</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.1065096399426149</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>-0.01319023133283461</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.04579073580263412</v>
+        <v>0.1604846170122597</v>
       </c>
       <c r="BQ16" t="n">
         <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0117241512565295</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.06141744035877043</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.1712898781336678</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.08290813412540324</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.01334339088865361</v>
+        <v>0.08901966590799887</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.008453077699104519</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.04259425722142832</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.08712596943517655</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>-0.02075387597562721</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.01649734049332284</v>
+        <v>-0.002153592644940722</v>
       </c>
       <c r="CI16" t="n">
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0.01078292922454375</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
@@ -9240,79 +9240,79 @@
         <v>-0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0.007164692102198984</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.009864816534725694</v>
       </c>
       <c r="CO16" t="n">
         <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.1467870035899039</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.01757939711316427</v>
+        <v>-0.0920787933183824</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0.0261696177352662</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.03864876737407352</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.05791724556515188</v>
       </c>
       <c r="CX16" t="n">
         <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.005182475415450661</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.004883350364012951</v>
+        <v>-0.009156336064185575</v>
       </c>
       <c r="DA16" t="n">
         <v>-0</v>
       </c>
       <c r="DB16" t="n">
-        <v>-0.006373226180990942</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0.0007116772393517254</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.05148853160773132</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.05085688338474276</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.004513950369074857</v>
+        <v>0.05731869786103624</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0.002401795324510452</v>
+        <v>-0</v>
       </c>
       <c r="DL16" t="n">
         <v>0</v>
@@ -9321,79 +9321,79 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0104277365286441</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.06921948725479179</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0</v>
+        <v>0.003288009373436834</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.0191564422735399</v>
+        <v>-0.0501321460496245</v>
       </c>
       <c r="DS16" t="n">
         <v>0</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.02857472685787306</v>
+        <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0.007540345700777333</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>-0.03861324932848842</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0</v>
+        <v>-0.03957069134164235</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.006470365995445504</v>
+        <v>-0.01956103109405261</v>
       </c>
       <c r="EB16" t="n">
         <v>-0</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.001150620092058278</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
         <v>-0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.06364454594623191</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.07212848662979884</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>-0.02466539543301993</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.004622518169428934</v>
+        <v>0.0880462334578923</v>
       </c>
       <c r="EK16" t="n">
         <v>0</v>
       </c>
       <c r="EL16" t="n">
-        <v>-0.02354720924853347</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
         <v>0</v>
@@ -9402,25 +9402,25 @@
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.005903820267886255</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>0.002182189181602288</v>
       </c>
       <c r="EQ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>0.01246032849560602</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.04417169376175623</v>
+        <v>0.02266190414171212</v>
       </c>
       <c r="ET16" t="n">
         <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.007379016140215728</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
         <v>0</v>
@@ -9429,112 +9429,112 @@
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.03634231371819787</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.05761992190603876</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>-0.02902193069762792</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.005682485126776517</v>
+        <v>0.01034691459685499</v>
       </c>
       <c r="FC16" t="n">
         <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0.006628795228229084</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>-0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.04672455859804771</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>-0.004955513465100514</v>
       </c>
       <c r="FI16" t="n">
         <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>-0.007035758394658607</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.01353494773369246</v>
+        <v>0.005592818130360866</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.005681559757658656</v>
+        <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.01355350176364728</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>-0.0419248616880936</v>
       </c>
       <c r="FR16" t="n">
         <v>0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>0.03124223524113894</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.005997174755451001</v>
+        <v>-0.03073948573563783</v>
       </c>
       <c r="FU16" t="n">
         <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.004982981788754915</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX16" t="n">
         <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.02204855238498642</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>0.03075002026424319</v>
       </c>
       <c r="GA16" t="n">
         <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.101573470512779</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.02068956262229054</v>
+        <v>0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
